--- a/biology/Botanique/Hieracium_prenanthoides/Hieracium_prenanthoides.xlsx
+++ b/biology/Botanique/Hieracium_prenanthoides/Hieracium_prenanthoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Épervière fausse prénanthe, Épervière à feuilles de prénanthe
 L’Épervière fausse prénanthe ou Épervière à feuilles de prénanthe (Hieracium prenanthoides) est une espèce de plante à fleurs de la famille des Astéracées.
@@ -513,13 +525,15 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (30 aout 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (30 aout 2019) :
 Hieracium bupleurifolium Tausch
 Hieracium hoegeri (Zahn) P.D. Sell &amp; C. West
 Hieracium lanceolatum Vill.
-Selon INPN      (30 aout 2019)[2] :
+Selon INPN      (30 aout 2019) :
 Aracium prenanthoides (Vill.) D.Dietr., 1847
 Hieracium hypoglaucum (Litv. &amp; Zahn) Üksip, 1960
 Hieracium panduriforme Dulac, 1867
